--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671089.6663024542</v>
+        <v>711410.3637095531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889763</v>
+        <v>337002.2430554238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8240289.624085056</v>
+        <v>8222662.983689155</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36.40754942051851</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.2712703689784</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>12.56746304287308</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>140.0390559390595</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1214,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>128.1860791126764</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>129.130898679602</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.304756115063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>200.9124899777282</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.34508049624266</v>
+        <v>46.80807769362092</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923383</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>33.23657099140055</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554002</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>353.5759586385877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>23.3545570526679</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>92.93819859881219</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>354.3958624239608</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>32.52882640960883</v>
+        <v>269.027508828177</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>398.0313798843944</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.31785343913998</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>194.8806712903671</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>101.5627341327607</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>245.36491591963</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>152.9964177297999</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>9.275596830496966</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.19995918853699</v>
@@ -3229,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3272,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>160.8414817298832</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>48.4326051737889</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>138.1059252827041</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>140.7228566298702</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>53.87467807705924</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>11.6788446020113</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>128.7835007017902</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.020123643055967</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>61.61413745350016</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>153.5271835984416</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>321.7064610691125</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>89.30725745073111</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.9389693285341</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C3" t="n">
-        <v>279.9389693285341</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D3" t="n">
-        <v>279.9389693285341</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E3" t="n">
-        <v>279.9389693285341</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G3" t="n">
         <v>133.4044113554191</v>
@@ -4413,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>279.9389693285341</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>279.9389693285341</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>279.9389693285341</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>279.9389693285341</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.9389693285341</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4512,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4603,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317.2409336147255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>317.2409336147255</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>317.2409336147255</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>317.2409336147255</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>170.7063756416104</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>31.97555022422594</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4749,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T8" t="n">
-        <v>698.4535282668857</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U8" t="n">
-        <v>556.9999364092498</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V8" t="n">
-        <v>291.098892013627</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="W8" t="n">
-        <v>291.098892013627</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X8" t="n">
-        <v>291.098892013627</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.19784761800419</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>422.663941852864</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>422.663941852864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>422.663941852864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>263.4264868474085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>263.4264868474085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.9455988548061</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231457</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927788</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>833.6219043191188</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>605.3982860555078</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806666</v>
+        <v>605.3982860555078</v>
       </c>
       <c r="W9" t="n">
-        <v>798.7307790784648</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X9" t="n">
-        <v>590.879278872932</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y9" t="n">
-        <v>590.879278872932</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2323.103882821189</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>336.2769833124028</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E13" t="n">
-        <v>336.2769833124028</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2769833124028</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G13" t="n">
-        <v>336.2769833124028</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H13" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.68094731003</v>
+        <v>884.2894331389239</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>884.2894331389239</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>498.5011805406796</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>87.51527575107207</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287636</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1639.851790143457</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5352,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5461,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1309.714918859356</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1309.714918859356</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1309.714918859356</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1309.714918859356</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1309.714918859356</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1309.714918859356</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7222632714563</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7222632714563</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7222632714563</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E19" t="n">
-        <v>210.7222632714563</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7222632714563</v>
+        <v>77.53344348972595</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>77.53344348972595</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714563</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7222632714563</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2212.181128500977</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C20" t="n">
-        <v>1843.218611560565</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5777,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2212.181128500977</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X20" t="n">
-        <v>2212.181128500977</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y20" t="n">
-        <v>2212.181128500977</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036445</v>
@@ -5947,13 +5949,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>695.2715837926879</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X22" t="n">
-        <v>467.2820328946706</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y22" t="n">
-        <v>246.4894537511405</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>1194.175505447095</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.175505447095</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>1194.175505447095</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F23" t="n">
-        <v>783.1896006574873</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5987,34 +5989,34 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
         <v>2697.149091018222</v>
@@ -6026,13 +6028,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.69838933464726</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X25" t="n">
-        <v>500.1394333084171</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>279.346854164887</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>799.1015098861748</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>799.1015098861748</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>799.1015098861748</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>799.1015098861748</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6227,16 +6229,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6254,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2500.29992809866</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2246.538142736751</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1915.475255393181</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1562.706600123066</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1189.240841861987</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>799.1015098861748</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6303,43 +6305,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2294.551509229942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2294.551509229942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2125.551708968275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2442.464602812336</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X28" t="n">
-        <v>2442.464602812336</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y28" t="n">
-        <v>2442.464602812336</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>159.5099885583422</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6561,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6625,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R31" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S31" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T31" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U31" t="n">
-        <v>450.8687156462887</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V31" t="n">
-        <v>450.8687156462887</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W31" t="n">
-        <v>450.8687156462887</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X31" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>576.3714747656866</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C32" t="n">
-        <v>207.4089578252748</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4089578252748</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E32" t="n">
-        <v>207.4089578252748</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6704,7 +6706,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6725,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2212.181128500978</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>1881.118241157407</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1726.5764050667</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.11064680562</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y32" t="n">
-        <v>962.9713148298083</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="C34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="D34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="E34" t="n">
-        <v>108.9687959810048</v>
+        <v>2678.586644293418</v>
       </c>
       <c r="F34" t="n">
-        <v>108.9687959810048</v>
+        <v>2531.696696795508</v>
       </c>
       <c r="G34" t="n">
-        <v>108.9687959810048</v>
+        <v>2362.696896533841</v>
       </c>
       <c r="H34" t="n">
-        <v>108.9687959810048</v>
+        <v>2204.948523966371</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942404</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>336.2769833124031</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.9687959810048</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253592</v>
+        <v>728.1407995935235</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>369.875100986773</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036446</v>
+        <v>369.875100986773</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036446</v>
+        <v>369.875100986773</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6956,31 +6958,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2648.227267610355</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2317.164380266785</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W35" t="n">
-        <v>2317.164380266785</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X35" t="n">
-        <v>1943.698622005704</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7011,46 +7013,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7114,31 +7116,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>550.5654064942404</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>550.5654064942404</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>411.0644718652463</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.1126181035247</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C38" t="n">
-        <v>494.150101163113</v>
+        <v>1094.711785517217</v>
       </c>
       <c r="D38" t="n">
-        <v>494.150101163113</v>
+        <v>1094.711785517217</v>
       </c>
       <c r="E38" t="n">
-        <v>108.3618485648688</v>
+        <v>1094.711785517217</v>
       </c>
       <c r="F38" t="n">
-        <v>108.3618485648688</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>108.3618485648688</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7199,25 +7201,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036446</v>
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>65.7397945496688</v>
       </c>
       <c r="C40" t="n">
         <v>53.94298182036446</v>
@@ -7357,25 +7359,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>598.044640063212</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>598.044640063212</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>65.7397945496688</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1112.426648284106</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>743.4641313436939</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>385.1984327369434</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>385.1984327369434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>385.1984327369434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>385.1984327369434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>58.00371277294624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>1485.892406545185</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>1112.426648284106</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1112.426648284106</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7509,31 +7511,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7591,28 +7593,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>579.9823256406185</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W43" t="n">
-        <v>579.9823256406185</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X43" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>579.9823256406185</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D44" t="n">
-        <v>764.6872557005406</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E44" t="n">
-        <v>378.8990031022964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>378.8990031022964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>378.8990031022964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610024</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610024</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8310,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>369.0313196126378</v>
       </c>
       <c r="P9" t="n">
-        <v>134.292646620523</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10428,7 +10430,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,7 +10667,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>124.4792166637132</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22598,10 +22600,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22635,10 +22637,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>100.9359677426921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.67011171199638</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22726,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22841,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22878,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.66798119362338</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>111.2991956798727</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>296.8154002296655</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23100,28 +23102,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>9.107937567019292</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>71.03383001521959</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>2.023134740338719</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.42908554841756</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>164.3604017932794</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>56.82580834555249</v>
+        <v>109.3628111481742</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>380.5475990293944</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787183</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049790008</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12.09831362247004</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>132.8163317891272</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923383</v>
@@ -23938,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>261.7448430218708</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>52.48018331775069</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>253.9941719269822</v>
+        <v>17.49548950841404</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>15.75279013640062</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24266,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9289676594879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24421,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>21.56764906729066</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>54.60815470903442</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24892,7 +24894,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>40.91695832234777</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>196.2445509876131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.6900249618413</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25117,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25160,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>252.9426882909118</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>202.7915623345004</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25330,7 +25332,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25354,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>87.60373010633305</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>266.1531891118412</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0480946872979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>155.5679764966165</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,25 +25599,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>83.36203824822869</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25645,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>147.9111926018053</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>224.2802725817785</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>87.00133556471219</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25843,13 +25845,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724685</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>228.4031864738202</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25880,7 +25882,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>2.216311695244599</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>59.30821556748124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751527</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133938</v>
@@ -26332,7 +26334,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26344,13 +26346,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="N2" t="n">
-        <v>245779.7185133938</v>
-      </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133937</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525672</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26439,7 +26441,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="J4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="K4" t="n">
         <v>27086.83710496504</v>
@@ -26448,7 +26450,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="M4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="N4" t="n">
         <v>27086.83710496504</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26502,16 @@
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629619</v>
+        <v>-13096.39685629615</v>
       </c>
       <c r="C6" t="n">
-        <v>67673.03467525155</v>
+        <v>67673.03467525158</v>
       </c>
       <c r="D6" t="n">
-        <v>45252.42222637153</v>
+        <v>67673.03467525156</v>
       </c>
       <c r="E6" t="n">
-        <v>-238259.0343385549</v>
+        <v>-263384.7706979767</v>
       </c>
       <c r="F6" t="n">
         <v>169461.4033450194</v>
       </c>
       <c r="G6" t="n">
-        <v>169461.4033450193</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="H6" t="n">
         <v>169461.4033450194</v>
       </c>
       <c r="I6" t="n">
-        <v>169461.4033450195</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="J6" t="n">
         <v>106401.4607459132</v>
@@ -26549,16 +26551,16 @@
         <v>169461.4033450194</v>
       </c>
       <c r="L6" t="n">
-        <v>163835.7611164937</v>
+        <v>169461.4033450194</v>
       </c>
       <c r="M6" t="n">
-        <v>67027.28565438424</v>
+        <v>61488.0426709614</v>
       </c>
       <c r="N6" t="n">
+        <v>169461.4033450194</v>
+      </c>
+      <c r="O6" t="n">
         <v>169461.4033450193</v>
-      </c>
-      <c r="O6" t="n">
-        <v>169461.4033450194</v>
       </c>
       <c r="P6" t="n">
         <v>169461.4033450194</v>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26756,13 +26758,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26793,16 +26795,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400766</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,22 +33356,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>226.4350751681934</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483715774</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35504,7 +35506,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35647,7 +35649,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
         <v>421.5361394435301</v>
@@ -35732,7 +35734,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
@@ -35744,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36212,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711410.3637095531</v>
+        <v>643103.9392868344</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>335414.3901624705</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10905804.67830213</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8222662.983689155</v>
+        <v>8243252.136356125</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36.40754942051851</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>66.46948864201228</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>90.40048839711262</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>144.1361559919116</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>28.08544177420961</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>129.130898679602</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.014288877659</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>200.9124899777282</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="H13" t="n">
-        <v>46.80807769362092</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>250.1325537001773</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>33.23657099140055</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554002</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.68157701938528</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>85.75496382563405</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23.3545570526679</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>121.2699779972375</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>354.3958624239608</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>219.3567277916625</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>269.027508828177</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.07659785038044</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>234.4585521898009</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>261.9025067912345</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>277.6280282422522</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>284.56151600587</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>104.3225890499767</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>160.8414817298832</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>42.94598636023064</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>68.25327490405893</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>140.7228566298702</v>
+        <v>92.31345533632719</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>11.6788446020113</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>26.94389492651078</v>
+        <v>101.0648684641362</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>153.5271835984416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>221.002178698296</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>128.7282531589278</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.6327430815143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,10 +4415,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>512.8480801015824</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>266.5980815799443</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>612.9942845540484</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>612.9942845540484</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>464.059874892797</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>551.996449470862</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>794.113554508393</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>704.3079091975965</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>432.5524838712628</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>432.5524838712628</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>432.5524838712628</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>432.5524838712628</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>166.65143947564</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>166.65143947564</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>166.65143947564</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271062</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271062</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271062</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271062</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271062</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="W8" t="n">
-        <v>749.6274730425127</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984127</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543127</v>
+        <v>432.5524838712628</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>383.1189801079781</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>208.6659508268511</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.42849582139556</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>833.6219043191188</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>605.3982860555078</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>605.3982860555078</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W9" t="n">
-        <v>361.9495094114078</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="X9" t="n">
-        <v>361.9495094114078</v>
+        <v>590.879278872932</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>383.1189801079781</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.0777814360265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="E11" t="n">
         <v>1363.553390680693</v>
@@ -5038,16 +5038,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940985</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117053</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="F13" t="n">
-        <v>283.209303713795</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="G13" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1253.251950079336</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C14" t="n">
-        <v>884.2894331389239</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D14" t="n">
-        <v>884.2894331389239</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E14" t="n">
-        <v>498.5011805406796</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F14" t="n">
-        <v>87.51527575107207</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.086203674651</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.317548404537</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>1639.851790143457</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y14" t="n">
-        <v>1639.851790143457</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
         <v>713.8062203571349</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>853.5471299640544</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>467.7588773658102</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5554,13 +5554,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>224.4233909876363</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C19" t="n">
-        <v>224.4233909876363</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D19" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>224.4233909876363</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>77.53344348972595</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>77.53344348972595</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>224.4233909876363</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X19" t="n">
-        <v>224.4233909876363</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.4233909876363</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1139.146815977588</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C20" t="n">
-        <v>770.1842990371763</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D20" t="n">
-        <v>411.9186004304258</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E20" t="n">
-        <v>411.9186004304258</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W20" t="n">
-        <v>2289.351746278601</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X20" t="n">
-        <v>1915.885988017521</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y20" t="n">
-        <v>1525.74665604171</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
         <v>1194.968834417902</v>
@@ -5852,28 +5852,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>456.3840257941342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X22" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037877</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="E23" t="n">
-        <v>807.3934508328825</v>
+        <v>950.6468339545936</v>
       </c>
       <c r="F23" t="n">
-        <v>396.407546043275</v>
+        <v>539.6609291649861</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>121.697121063173</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>121.697121063173</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>290.7698022141028</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>463.5809975486215</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1613.257399524955</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1613.257399524955</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1613.257399524955</v>
       </c>
     </row>
     <row r="30">
@@ -6548,10 +6548,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U31" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1865.381229508783</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>1496.418712568371</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>1138.15301396162</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
-        <v>752.3647613633761</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>341.3788565737686</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6718,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X32" t="n">
-        <v>2642.120401548716</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y32" t="n">
-        <v>2251.981069572904</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.696896533841</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.948523966371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1097.103316533935</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="C35" t="n">
-        <v>728.1407995935235</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D35" t="n">
-        <v>369.875100986773</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>369.875100986773</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>369.875100986773</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6937,25 +6937,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
@@ -6970,19 +6970,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>1873.842488573869</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y35" t="n">
-        <v>1483.703156598057</v>
+        <v>892.8693763960225</v>
       </c>
     </row>
     <row r="36">
@@ -6998,22 +6998,22 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J36" t="n">
         <v>53.94298182036445</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1463.674302457628</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="C38" t="n">
-        <v>1094.711785517217</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="D38" t="n">
-        <v>1094.711785517217</v>
+        <v>950.9409570015605</v>
       </c>
       <c r="E38" t="n">
-        <v>1094.711785517217</v>
+        <v>565.1527044033162</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2189.908715988822</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W38" t="n">
-        <v>1837.140060718708</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X38" t="n">
-        <v>1463.674302457628</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y38" t="n">
-        <v>1463.674302457628</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7265,13 +7265,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>286.5323736931989</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>286.5323736931989</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>286.5323736931989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.7397945496688</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2669.933035536898</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536898</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266784</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,28 +7511,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005476</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="W43" t="n">
-        <v>184.027325963587</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>936.2491605982757</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>567.286643657864</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>209.0209450511135</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X44" t="n">
-        <v>936.2491605982757</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>936.2491605982757</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152626</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>188.5314933775168</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996773</v>
+        <v>337.2886456526674</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>369.0313196126378</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142006</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9719,13 +9719,13 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>100.9359677426921</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>282.7714800754007</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>76.13269525275471</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>90.83571695072732</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>62.77300619745932</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>296.8154002296655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783946</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>116.9837706191743</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>71.03383001521959</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326061</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.32518834398849</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>164.3604017932794</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.8147443664145</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>11.42376369151714</v>
       </c>
       <c r="H13" t="n">
-        <v>109.3628111481742</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>131.7978163720845</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>380.5475990293944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923383</v>
@@ -23703,16 +23703,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01837628787183</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.4560663044427</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>321.1210819160774</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>132.8163317891272</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923383</v>
@@ -23940,7 +23940,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>97.31467535485731</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>52.48018331775069</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>31.86743971662685</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>17.49548950841404</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>84.85471839448081</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24417,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>147.4718178824609</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24493,7 +24493,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>24.62049154535646</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,22 +24733,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>71.61294047516083</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.2278925609831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>129.222654014925</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,7 +24973,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>281.9153496060769</v>
       </c>
     </row>
     <row r="33">
@@ -25083,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>252.9426882909118</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>343.291952295823</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>80.36219811415343</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,10 +25368,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>266.1531891118412</v>
+        <v>314.5625904053842</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>155.5679764966165</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>224.2802725817785</v>
+        <v>150.1592990441531</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,16 +25842,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>245.2493659069478</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>228.4031864738202</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>30.22198880999329</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>157.55362108305</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465428.5179229465</v>
+        <v>468509.5306848606</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465428.5179229465</v>
+        <v>484493.4921751527</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="15">
@@ -26316,19 +26316,19 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.718513394</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
@@ -26346,13 +26346,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133937</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>407720.4376835743</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25282.26821261927</v>
+        <v>25293.26066533936</v>
       </c>
       <c r="D4" t="n">
-        <v>25282.26821261927</v>
+        <v>25338.71079138016</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26450,7 +26450,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="M4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
         <v>27086.83710496504</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26499,13 +26499,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629615</v>
+        <v>-25314.40747633661</v>
       </c>
       <c r="C6" t="n">
-        <v>67673.03467525158</v>
+        <v>51699.94129532461</v>
       </c>
       <c r="D6" t="n">
-        <v>67673.03467525156</v>
+        <v>37641.98612414195</v>
       </c>
       <c r="E6" t="n">
-        <v>-263384.7706979767</v>
+        <v>-244327.4480843742</v>
       </c>
       <c r="F6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="G6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992003</v>
       </c>
       <c r="H6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="I6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="J6" t="n">
-        <v>106401.4607459132</v>
+        <v>100333.0470000939</v>
       </c>
       <c r="K6" t="n">
-        <v>169461.4033450194</v>
+        <v>162479.733796743</v>
       </c>
       <c r="L6" t="n">
-        <v>169461.4033450194</v>
+        <v>158665.4264803528</v>
       </c>
       <c r="M6" t="n">
-        <v>61488.0426709614</v>
+        <v>60958.87190856499</v>
       </c>
       <c r="N6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="O6" t="n">
-        <v>169461.4033450193</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26767,16 +26767,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26792,22 +26792,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26819,13 +26819,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>354.7302815302972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.045238802889</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,22 +33593,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,22 +33830,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,22 +34304,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>59.2450303102814</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>241.014288877659</v>
+        <v>207.6969052949493</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>226.4350751681934</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047518</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38113,7 +38113,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643103.9392868344</v>
+        <v>703811.9251730636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624705</v>
+        <v>337002.2430554235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830213</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8243252.136356125</v>
+        <v>8222662.983689154</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>3.833957768458675</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>66.46948864201228</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.40048839711262</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>144.1361559919116</v>
+        <v>94.41048699370593</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>28.08544177420961</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>110.5627721675626</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>121.1156257058473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>230.0960461128929</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250819</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.1325537001773</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -1666,13 +1666,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>57.68157701938528</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>112.374960924092</v>
       </c>
       <c r="F17" t="n">
-        <v>85.75496382563405</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.82811972447759</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.2699779972375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>149.8955942249644</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3567277916625</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>79.32920716089164</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>67.07659785038044</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>195.0976310468389</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>234.4585521898009</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>199.3355115125533</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>67.17737911999787</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>227.2386140365967</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>277.6280282422522</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.84244993117457</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>128.7835007017901</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>43.79762107299346</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>104.3225890499767</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>96.05432859461033</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.94598636023064</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25327490405893</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>280.1033070984083</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>92.31345533632719</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>101.0648684641362</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>207.9431969866951</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.8335894988186328</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>269.5177472176156</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>221.002178698296</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7282531589278</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>23.90796037760316</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4515,16 +4515,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.5980815799443</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C5" t="n">
-        <v>19.56501858889139</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>19.56501858889139</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>827.8051051802445</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>827.8051051802445</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>827.8051051802445</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>827.8051051802445</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>513.6311445709973</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.5980815799443</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612.9942845540484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>612.9942845540484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>464.059874892797</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>304.8224198873415</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.2878619142265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>251.2267644261524</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>493.3438694636834</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>704.3079091975965</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>704.3079091975965</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>704.3079091975965</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>704.3079091975965</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>704.3079091975965</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>704.3079091975965</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>704.3079091975965</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432.5524838712628</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="C8" t="n">
-        <v>432.5524838712628</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="D8" t="n">
-        <v>432.5524838712628</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="E8" t="n">
-        <v>432.5524838712628</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="F8" t="n">
-        <v>166.65143947564</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="G8" t="n">
-        <v>166.65143947564</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="H8" t="n">
-        <v>166.65143947564</v>
+        <v>114.6452713866834</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="T8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="U8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="V8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="W8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="X8" t="n">
-        <v>698.4535282668857</v>
+        <v>358.0940480307834</v>
       </c>
       <c r="Y8" t="n">
-        <v>432.5524838712628</v>
+        <v>114.6452713866834</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>383.1189801079781</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>208.6659508268511</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>208.6659508268511</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>49.42849582139556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>600.5536970360757</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>726.4525409563266</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>852.3775876646132</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>650.1909930233792</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>421.9673747597682</v>
       </c>
       <c r="V9" t="n">
-        <v>1052.968135806666</v>
+        <v>421.9673747597682</v>
       </c>
       <c r="W9" t="n">
-        <v>798.7307790784648</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X9" t="n">
-        <v>590.879278872932</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y9" t="n">
-        <v>383.1189801079781</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.892406545185</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C11" t="n">
-        <v>1485.892406545185</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D11" t="n">
-        <v>1485.892406545185</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W11" t="n">
-        <v>1485.892406545185</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X11" t="n">
-        <v>1485.892406545185</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y11" t="n">
-        <v>1485.892406545185</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5120,22 +5120,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5226,25 +5226,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T13" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U13" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V13" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1289.01781586839</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C14" t="n">
-        <v>1289.01781586839</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.01781586839</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E14" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
         <v>207.4089578252748</v>
@@ -5290,7 +5290,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5314,16 +5314,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W14" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X14" t="n">
-        <v>1289.01781586839</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y14" t="n">
-        <v>1289.01781586839</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F16" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5472,16 +5472,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>380.6911546495019</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y16" t="n">
-        <v>380.6911546495019</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1580.775345511217</v>
+        <v>1305.667163696621</v>
       </c>
       <c r="C17" t="n">
-        <v>1211.812828570805</v>
+        <v>936.7046467562093</v>
       </c>
       <c r="D17" t="n">
-        <v>853.5471299640544</v>
+        <v>578.4389481494588</v>
       </c>
       <c r="E17" t="n">
-        <v>467.7588773658102</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X17" t="n">
-        <v>1970.914677487028</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.775345511217</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5594,43 +5594,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C19" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
         <v>200.8329293182748</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y19" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.9054987607761</v>
+        <v>974.6042763530502</v>
       </c>
       <c r="C20" t="n">
-        <v>53.94298182036444</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036444</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036444</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2256.941971675474</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>1925.879084331904</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1573.11042906179</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>1199.64467080071</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y20" t="n">
-        <v>809.505338824898</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>184.2708856551153</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1336.435086552838</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="C23" t="n">
-        <v>1336.435086552838</v>
+        <v>1696.62143709608</v>
       </c>
       <c r="D23" t="n">
-        <v>1336.435086552838</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E23" t="n">
-        <v>950.6468339545936</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F23" t="n">
-        <v>539.6609291649861</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>121.697121063173</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>121.697121063173</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2465.942913862886</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2113.174258592771</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X23" t="n">
-        <v>2113.174258592771</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y23" t="n">
-        <v>1723.03492661696</v>
+        <v>1696.62143709608</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1017.998017761265</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C26" t="n">
-        <v>649.0355008208533</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D26" t="n">
-        <v>290.7698022141028</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2168.202948062278</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1794.737189801198</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y26" t="n">
-        <v>1404.597857825387</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240415</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>660.2730457013859</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1226.657559460833</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C29" t="n">
-        <v>857.6950425204218</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D29" t="n">
-        <v>857.6950425204218</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E29" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
@@ -6463,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W29" t="n">
-        <v>1613.257399524955</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X29" t="n">
-        <v>1613.257399524955</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y29" t="n">
-        <v>1613.257399524955</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6645,28 +6645,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>642.4295398315104</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>428.1411166496731</v>
       </c>
       <c r="T31" t="n">
-        <v>598.0446400632119</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.387305656314</v>
+        <v>1949.306440187188</v>
       </c>
       <c r="X32" t="n">
-        <v>2069.921547395234</v>
+        <v>1575.840681926108</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1185.701349950297</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6888,16 +6888,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>536.6170209242687</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
         <v>53.94298182036445</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>892.8693763960225</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="C35" t="n">
-        <v>892.8693763960225</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>896.126084224165</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>478.1622761223518</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>150.9675561583547</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y35" t="n">
-        <v>892.8693763960225</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>53.94298182036445</v>
@@ -7037,22 +7037,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>269.7756312415667</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1309.206655608311</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1309.206655608311</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>950.9409570015605</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>565.1527044033162</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1695.806495672433</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1695.806495672433</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>1695.806495672433</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7265,31 +7265,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7365,7 +7365,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
         <v>343.360151857325</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7411,10 +7411,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224073</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U41" t="n">
-        <v>2418.885877611043</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V41" t="n">
-        <v>2418.885877611043</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W41" t="n">
-        <v>2418.885877611043</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.420119349963</v>
+        <v>1606.911660568862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.280787374151</v>
+        <v>1216.77232859305</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7493,10 +7493,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.6820060902423</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C43" t="n">
-        <v>517.7458231623355</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D43" t="n">
-        <v>517.7458231623355</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>359.423311480511</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>212.5333639826006</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>54.78499141513075</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.6820060902423</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="D44" t="n">
         <v>1268.68094731003</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2418.885877611043</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2418.885877611043</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2418.885877611043</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>2045.420119349963</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y44" t="n">
-        <v>1655.280787374151</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7730,10 +7730,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>370.7922583306645</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C46" t="n">
-        <v>201.8560754027576</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D46" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>370.7922583306645</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W46" t="n">
-        <v>370.7922583306645</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X46" t="n">
-        <v>370.7922583306645</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y46" t="n">
-        <v>370.7922583306645</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>188.5314933775168</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>337.2886456526674</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9390274350188</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>120.7101594098652</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>282.7714800754007</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>125.1683683173266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.13269525275471</v>
+        <v>161.9526345551508</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>90.83571695072732</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>62.77300619745932</v>
+        <v>116.0654025767</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>116.9837706191743</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>61.12039893627527</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>260.8147443664145</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>156.1418925431607</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>11.42376369151714</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23466,10 +23466,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>123.5101217588455</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>131.7978163720845</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923383</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>194.4560663044427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>269.5554091481698</v>
       </c>
       <c r="F17" t="n">
-        <v>321.1210819160774</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>210.2069857336067</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.31467535485731</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>215.3772975460432</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24019,13 +24019,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>31.86743971662685</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>67.10475548567753</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923383</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>96.68503059263384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>84.85471839448081</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>191.1403076092147</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>173.2359645635688</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24417,19 +24417,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>147.4718178824609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>170.3955891659157</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>50.78177823929093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,13 +24651,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>144.968159830021</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>154.6917560356651</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>71.61294047516083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24885,22 +24885,22 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>61.82274204898329</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>96.25160475629417</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>305.4433476444195</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>281.9153496060769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25128,19 +25128,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>35.43826180874041</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>55.87698765025092</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>343.291952295823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36219811415343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25365,10 +25365,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>314.5625904053842</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25605,10 +25605,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>150.1592990441531</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>161.7879036917739</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.1320322935196</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25842,7 +25842,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>245.2493659069478</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>85.16529440306732</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.22198880999329</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.55362108305</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229464</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468509.5306848606</v>
+        <v>465428.5179229465</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751527</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="13">
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26328,10 +26328,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133939</v>
@@ -26349,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847362</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25293.26066533936</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25314.40747633661</v>
+        <v>-14318.19791830016</v>
       </c>
       <c r="C6" t="n">
-        <v>51699.94129532461</v>
+        <v>66451.23361324753</v>
       </c>
       <c r="D6" t="n">
-        <v>37641.98612414195</v>
+        <v>66451.2336132476</v>
       </c>
       <c r="E6" t="n">
-        <v>-244327.4480843742</v>
+        <v>-263991.6120725585</v>
       </c>
       <c r="F6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="G6" t="n">
-        <v>163392.9895992003</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="H6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
       <c r="I6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="J6" t="n">
-        <v>100333.0470000939</v>
+        <v>105794.6193713312</v>
       </c>
       <c r="K6" t="n">
-        <v>162479.733796743</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="L6" t="n">
-        <v>158665.4264803528</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="M6" t="n">
-        <v>60958.87190856499</v>
+        <v>60881.20129637933</v>
       </c>
       <c r="N6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704376</v>
       </c>
       <c r="O6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="P6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26752,7 +26752,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,7 +26807,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
-        <v>59.2450303102814</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6969052949493</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35506,7 +35506,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36445,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36454,7 +36454,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37554,7 +37554,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530451</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37861,13 +37861,13 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
